--- a/data/Ranges_v5_gen.xlsx
+++ b/data/Ranges_v5_gen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="465" windowWidth="24705" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="465" windowWidth="19440" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,6 +559,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,21 +593,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -866,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -921,53 +921,53 @@
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="63" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="65"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="31" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64" t="s">
+      <c r="O1" s="56"/>
+      <c r="P1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64" t="s">
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64" t="s">
+      <c r="S1" s="56"/>
+      <c r="T1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="63" t="s">
+      <c r="U1" s="57"/>
+      <c r="V1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64" t="s">
+      <c r="W1" s="56"/>
+      <c r="X1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64" t="s">
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64" t="s">
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="65"/>
+      <c r="AC1" s="57"/>
       <c r="AD1" s="32" t="s">
         <v>25</v>
       </c>
@@ -1177,52 +1177,52 @@
         <v>0.5</v>
       </c>
       <c r="N4" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="O4" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P4" s="38">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q4" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="R4" s="2">
         <v>1500</v>
       </c>
       <c r="S4" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="T4" s="37">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="U4" s="5">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="V4" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="W4" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="X4" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Y4" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z4" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AA4" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AB4" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AC4" s="5">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD4" s="26">
         <v>1.4999999999999999E-2</v>
@@ -1685,38 +1685,38 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="N10" s="63" t="s">
+      <c r="N10" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64" t="s">
+      <c r="O10" s="56"/>
+      <c r="P10" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64" t="s">
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64" t="s">
+      <c r="S10" s="56"/>
+      <c r="T10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="65"/>
-      <c r="V10" s="63" t="s">
+      <c r="U10" s="57"/>
+      <c r="V10" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64" t="s">
+      <c r="W10" s="56"/>
+      <c r="X10" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64" t="s">
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64" t="s">
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AC10" s="65"/>
+      <c r="AC10" s="57"/>
       <c r="AD10" s="33" t="s">
         <v>25</v>
       </c>
@@ -1833,27 +1833,27 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="58"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="20"/>
       <c r="M13" s="28"/>
       <c r="N13" s="14">
         <f>N4*1.9</f>
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" ref="O13:U13" si="22">O4*1.9</f>
-        <v>19000</v>
+        <v>28500</v>
       </c>
       <c r="P13" s="12">
         <f t="shared" si="22"/>
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="Q13" s="12">
         <f t="shared" si="22"/>
-        <v>19000</v>
+        <v>28500</v>
       </c>
       <c r="R13" s="12">
         <f t="shared" si="22"/>
@@ -1861,15 +1861,15 @@
       </c>
       <c r="S13" s="12">
         <f t="shared" si="22"/>
-        <v>190000</v>
+        <v>380000</v>
       </c>
       <c r="T13" s="12">
         <f t="shared" si="22"/>
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="U13" s="19">
         <f t="shared" si="22"/>
-        <v>19000</v>
+        <v>28500</v>
       </c>
       <c r="V13" s="12">
         <f>V4*1.896</f>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="W13" s="12">
         <f t="shared" ref="W13:AD13" si="23">W4*1.896</f>
-        <v>5.6879999999999995E-3</v>
+        <v>2.8439999999999997E-2</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" si="23"/>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="Y13" s="12">
         <f t="shared" si="23"/>
-        <v>5.6879999999999995E-3</v>
+        <v>2.8439999999999997E-2</v>
       </c>
       <c r="Z13" s="12">
         <f t="shared" si="23"/>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="AA13" s="12">
         <f t="shared" si="23"/>
-        <v>5.6879999999999995E-3</v>
+        <v>2.8439999999999997E-2</v>
       </c>
       <c r="AB13" s="12">
         <f t="shared" si="23"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="23"/>
-        <v>5.6879999999999995E-3</v>
+        <v>2.8439999999999997E-2</v>
       </c>
       <c r="AD13" s="26">
         <f t="shared" si="23"/>
@@ -1909,8 +1909,8 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="21"/>
       <c r="M14" s="29"/>
       <c r="N14" s="4">
@@ -1983,8 +1983,8 @@
       </c>
     </row>
     <row r="15" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="21"/>
       <c r="M15" s="29"/>
       <c r="N15" s="4">
@@ -2057,8 +2057,8 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="21"/>
       <c r="M16" s="29"/>
       <c r="N16" s="4">
@@ -2131,8 +2131,8 @@
       </c>
     </row>
     <row r="17" spans="10:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="22"/>
       <c r="M17" s="30"/>
       <c r="N17" s="15">
@@ -2205,7 +2205,7 @@
       </c>
     </row>
     <row r="19" spans="10:30" x14ac:dyDescent="0.25">
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="61" t="s">
         <v>38</v>
       </c>
       <c r="N19" s="53" t="s">
@@ -2240,7 +2240,7 @@
       <c r="L20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="56"/>
+      <c r="M20" s="61"/>
       <c r="N20" s="10" t="s">
         <v>28</v>
       </c>
@@ -2275,14 +2275,14 @@
         <f>K21*0.17611</f>
         <v>1.58499E-2</v>
       </c>
-      <c r="M21" s="56"/>
+      <c r="M21" s="61"/>
       <c r="N21" s="40">
         <f>3*N13</f>
-        <v>2850</v>
+        <v>1425</v>
       </c>
       <c r="O21" s="39">
         <f>3*P13</f>
-        <v>2850</v>
+        <v>1425</v>
       </c>
       <c r="P21" s="39">
         <f>3*R13</f>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="Q21" s="41">
         <f>3*T13</f>
-        <v>2850</v>
+        <v>1425</v>
       </c>
       <c r="R21" s="46">
         <f>1/(2*L21*C4*M4)</f>
@@ -2318,7 +2318,7 @@
         <f t="shared" ref="L22:L25" si="32">K22*0.17611</f>
         <v>1.58499E-2</v>
       </c>
-      <c r="M22" s="56"/>
+      <c r="M22" s="61"/>
       <c r="N22" s="40">
         <f t="shared" ref="N22:N25" si="33">3*N14</f>
         <v>11637.119999999999</v>
@@ -2361,7 +2361,7 @@
         <f t="shared" si="32"/>
         <v>1.58499E-2</v>
       </c>
-      <c r="M23" s="56"/>
+      <c r="M23" s="61"/>
       <c r="N23" s="40">
         <f t="shared" si="33"/>
         <v>14546.400000000001</v>
@@ -2404,7 +2404,7 @@
         <f t="shared" si="32"/>
         <v>1.58499E-2</v>
       </c>
-      <c r="M24" s="56"/>
+      <c r="M24" s="61"/>
       <c r="N24" s="40">
         <f t="shared" si="33"/>
         <v>21819.599999999999</v>
@@ -2447,7 +2447,7 @@
         <f t="shared" si="32"/>
         <v>1.58499E-2</v>
       </c>
-      <c r="M25" s="56"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="42">
         <f t="shared" si="33"/>
         <v>29092.800000000003</v>
@@ -2484,11 +2484,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="M19:M25"/>
+    <mergeCell ref="J13:K17"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="V10:W10"/>
@@ -2499,11 +2499,11 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="J13:K17"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
